--- a/data/trans_camb/P1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 10,01</t>
+          <t>0,26; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,78</t>
+          <t>-0,31; 4,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,39</t>
+          <t>-0,84; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 15,42</t>
+          <t>6,24; 12,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 13,69</t>
+          <t>2,96; 8,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,84</t>
+          <t>2,1; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,51</t>
+          <t>4,25; 8,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 9,44</t>
+          <t>2,31; 6,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,06</t>
+          <t>1,34; 4,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>149,87%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>153,8%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>112,57%</t>
+          <t>185,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>118,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>123,83%</t>
+          <t>134,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>106,47%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,69%</t>
+          <t>64,77%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,67; —</t>
+          <t>3,46; 161,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 1074,02</t>
+          <t>-7,41; 153,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,67; —</t>
+          <t>-18,43; 129,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 507,91</t>
+          <t>98,8; 303,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 382,04</t>
+          <t>44,05; 212,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 267,62</t>
+          <t>32,09; 168,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 423,33</t>
+          <t>80,54; 223,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 325,65</t>
+          <t>42,87; 161,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 256,41</t>
+          <t>24,92; 119,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,18</t>
+          <t>-0,03; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,55</t>
+          <t>-3,29; 0,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,26</t>
+          <t>-3,79; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 13,6</t>
+          <t>4,55; 10,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,63</t>
+          <t>0,51; 5,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,62</t>
+          <t>0,41; 5,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,2</t>
+          <t>2,79; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,11</t>
+          <t>-0,77; 2,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,18</t>
+          <t>-1,93; 2,44</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>-25,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>-18,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>203,82%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>126,85%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>136,91%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>10,77%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 174,1</t>
+          <t>-1,7; 99,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 159,1</t>
+          <t>-52,1; 11,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 144,74</t>
+          <t>-63,37; 23,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>100,69; 367,08</t>
+          <t>52,42; 174,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,35; 246,74</t>
+          <t>5,17; 94,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,19; 217,74</t>
+          <t>4,4; 89,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,92; 218,21</t>
+          <t>38,96; 117,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,22; 161,44</t>
+          <t>-10,52; 47,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 143,44</t>
+          <t>-26,69; 43,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,26</t>
+          <t>-3,39; 2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,51</t>
+          <t>-3,99; 1,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,96</t>
+          <t>-1,32; 4,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,34</t>
+          <t>-3,31; 3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,89</t>
+          <t>-4,21; 2,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,44</t>
+          <t>-8,18; 0,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,44</t>
+          <t>-2,18; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,58</t>
+          <t>-3,24; 1,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,24</t>
+          <t>-4,33; 1,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,54%</t>
+          <t>-22,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>-12,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>-12,52%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 99,75</t>
+          <t>-44,32; 40,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 11,48</t>
+          <t>-51,96; 23,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 46,42</t>
+          <t>-18,34; 90,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,42; 174,63</t>
+          <t>-23,03; 36,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 94,34</t>
+          <t>-30,26; 21,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 92,08</t>
+          <t>-59,84; 0,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,96; 117,96</t>
+          <t>-20,13; 30,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 47,86</t>
+          <t>-31,69; 13,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 58,34</t>
+          <t>-42,23; 15,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,05</t>
+          <t>-0,66; 3,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,05</t>
+          <t>-0,95; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,64</t>
+          <t>-2,0; 2,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,85</t>
+          <t>1,73; 7,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,16</t>
+          <t>-2,28; 3,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,25</t>
+          <t>-0,95; 4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,46</t>
+          <t>1,13; 4,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,05</t>
+          <t>-0,63; 2,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,21</t>
+          <t>-0,53; 2,87</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,9%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>15,14%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 40,83</t>
+          <t>-10,93; 87,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 23,11</t>
+          <t>-14,15; 82,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 94,74</t>
+          <t>-31,12; 48,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 36,56</t>
+          <t>16,29; 91,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 21,97</t>
+          <t>-21,71; 38,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 10,97</t>
+          <t>-8,73; 57,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 30,71</t>
+          <t>13,32; 71,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 13,1</t>
+          <t>-7,98; 39,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 26,06</t>
+          <t>-6,56; 42,6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,93</t>
+          <t>0,36; 2,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,6</t>
+          <t>-0,92; 1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,03</t>
+          <t>-1,17; 1,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,27</t>
+          <t>3,87; 6,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,15</t>
+          <t>0,63; 3,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,71</t>
+          <t>-0,52; 2,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,82</t>
+          <t>2,59; 4,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,64</t>
+          <t>0,3; 2,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,45</t>
+          <t>-0,35; 1,96</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>64,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 87,43</t>
+          <t>6,09; 58,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 82,8</t>
+          <t>-16,37; 26,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 48,99</t>
+          <t>-21,23; 30,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,29; 91,67</t>
+          <t>40,8; 87,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 38,69</t>
+          <t>6,9; 47,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,12; 72,29</t>
+          <t>-5,46; 35,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 71,97</t>
+          <t>35,23; 70,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 39,94</t>
+          <t>4,04; 32,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,06; 51,27</t>
+          <t>-4,96; 30,15</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 2,73</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 1,23</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 1,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 6,87</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,72</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 3,59</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,51</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,11</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 2,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>29,36%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>64,39%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>25,68%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>26,95%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>51,51%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>17,35%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 58,56</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-16,37; 26,31</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 39,53</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>40,8; 87,43</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 47,83</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>8,78; 45,82</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>35,23; 70,43</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 32,98</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>8,38; 39,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P1002-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,96</t>
+          <t>0,28; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,41</t>
+          <t>-0,16; 4,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,59</t>
+          <t>-0,76; 3,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,63</t>
+          <t>6,73; 12,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,95</t>
+          <t>3,13; 9,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,8</t>
+          <t>2,22; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,18</t>
+          <t>4,23; 8,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,13</t>
+          <t>2,24; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,46</t>
+          <t>1,36; 4,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 161,68</t>
+          <t>4,77; 170,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 153,2</t>
+          <t>-2,7; 162,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 129,67</t>
+          <t>-17,99; 132,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98,8; 303,92</t>
+          <t>102,83; 330,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,05; 212,52</t>
+          <t>51,77; 230,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 168,78</t>
+          <t>33,34; 172,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,54; 223,55</t>
+          <t>76,57; 210,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,87; 161,18</t>
+          <t>40,43; 165,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,92; 119,06</t>
+          <t>22,96; 118,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,26</t>
+          <t>-0,05; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,51</t>
+          <t>-3,38; 0,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,07</t>
+          <t>-3,69; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,34</t>
+          <t>4,31; 10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,89</t>
+          <t>0,47; 6,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,29</t>
+          <t>0,36; 5,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,44</t>
+          <t>2,73; 6,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,58</t>
+          <t>-0,64; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,44</t>
+          <t>-1,8; 2,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 99,75</t>
+          <t>-1,18; 102,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 11,48</t>
+          <t>-52,78; 11,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,37; 23,03</t>
+          <t>-57,45; 30,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,42; 174,63</t>
+          <t>50,2; 172,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 94,34</t>
+          <t>3,43; 98,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 89,82</t>
+          <t>2,72; 86,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 117,96</t>
+          <t>37,51; 118,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 47,86</t>
+          <t>-9,7; 46,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 43,43</t>
+          <t>-25,02; 43,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,05</t>
+          <t>-3,09; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,05</t>
+          <t>-4,04; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,5</t>
+          <t>-1,53; 4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,85</t>
+          <t>-2,76; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,16</t>
+          <t>-4,34; 2,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,16</t>
+          <t>-9,53; -0,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,46</t>
+          <t>-2,4; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,05</t>
+          <t>-3,43; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,31</t>
+          <t>-4,66; 1,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 40,83</t>
+          <t>-41,65; 46,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 23,11</t>
+          <t>-51,84; 27,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 90,49</t>
+          <t>-20,17; 91,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 36,56</t>
+          <t>-19,38; 43,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 21,97</t>
+          <t>-30,82; 21,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,84; 0,55</t>
+          <t>-67,35; -2,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 30,71</t>
+          <t>-22,56; 26,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 13,1</t>
+          <t>-32,79; 11,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 15,06</t>
+          <t>-45,22; 13,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,93</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,6</t>
+          <t>-0,59; 3,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,07</t>
+          <t>-2,3; 1,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,27</t>
+          <t>1,38; 6,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,15</t>
+          <t>-2,17; 3,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,6</t>
+          <t>-1,05; 4,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,82</t>
+          <t>1,2; 4,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,64</t>
+          <t>-0,84; 2,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,87</t>
+          <t>-0,49; 2,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 87,43</t>
+          <t>-8,72; 92,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 82,8</t>
+          <t>-11,03; 90,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 48,86</t>
+          <t>-35,06; 43,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,29; 91,67</t>
+          <t>13,7; 85,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 38,69</t>
+          <t>-20,89; 43,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 57,46</t>
+          <t>-9,69; 58,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,32; 71,97</t>
+          <t>13,95; 73,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 39,94</t>
+          <t>-10,23; 40,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 42,6</t>
+          <t>-6,13; 45,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,42; 2,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,88; 1,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,46</t>
+          <t>-1,11; 1,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>4,08; 7,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,82; 3,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,82</t>
+          <t>-0,58; 2,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,63; 4,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,96</t>
+          <t>-0,31; 1,87</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>7,52; 61,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-14,78; 28,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 30,35</t>
+          <t>-19,51; 30,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>44,25; 89,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,2; 45,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 35,87</t>
+          <t>-5,69; 35,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>36,21; 71,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>3,46; 31,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 30,15</t>
+          <t>-3,77; 28,85</t>
         </is>
       </c>
     </row>
